--- a/Diagram/Use Case Description.xlsx
+++ b/Diagram/Use Case Description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\TPADesktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\TPADesktop\Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7814C3E-E97F-4D4D-B044-C374E1F46653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5466F41C-6970-4A3E-8676-307A172064D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9964CAB5-91E7-4DEF-B307-B7BE77D0856F}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{9964CAB5-91E7-4DEF-B307-B7BE77D0856F}"/>
   </bookViews>
   <sheets>
     <sheet name="Invite To Workspace" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Workspace Admin, User</t>
   </si>
   <si>
-    <t>Workspace admin go to the manage workspace, click the invite tab. Workspace admin choose the invite with link</t>
-  </si>
-  <si>
     <t>System must validate if the workspace is an admin</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>Only 1 admin and many member</t>
+  </si>
+  <si>
+    <t>Workspace admin go to the manage workspace, workspace admin click the invite tab. Workspace admin choose the invite with link</t>
   </si>
 </sst>
 </file>
@@ -371,13 +371,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -698,18 +698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47788247-30B3-4D56-9BD0-82D48026E8C4}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,7 +718,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -736,16 +736,16 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="2:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -754,7 +754,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -763,7 +763,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -772,27 +772,27 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>32</v>
+    <row r="11" spans="2:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -801,37 +801,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+    <row r="12" spans="2:4" ht="173.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -846,50 +846,50 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="2:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="2:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -898,45 +898,45 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -945,37 +945,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+    <row r="12" spans="2:4" ht="173.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>33</v>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -986,100 +986,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51126309-93B2-4C9F-BA0A-11801C045B3D}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="2:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1089,37 +1089,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+    <row r="12" spans="2:4" ht="173.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1134,96 +1134,96 @@
       <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
+      <c r="C10" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1233,37 +1233,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+    <row r="12" spans="2:4" ht="173.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1278,100 +1278,100 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="2:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>59</v>
+    <row r="11" spans="2:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -1380,37 +1380,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="173.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+    <row r="12" spans="2:5" ht="173.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
